--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.689324010801623</v>
+        <v>3.657830235493572</v>
       </c>
       <c r="C2">
-        <v>2.010686581087004</v>
+        <v>2.002151662949331</v>
       </c>
       <c r="D2">
-        <v>1.572707321208711</v>
+        <v>1.570172298926858</v>
       </c>
       <c r="E2">
-        <v>1.384615479123636</v>
+        <v>1.378958854892205</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.584835325838224</v>
+        <v>3.555220259392242</v>
       </c>
       <c r="C3">
-        <v>1.979074113303112</v>
+        <v>1.971045113597998</v>
       </c>
       <c r="D3">
-        <v>1.563112006889338</v>
+        <v>1.558931202156377</v>
       </c>
       <c r="E3">
-        <v>1.377363261649236</v>
+        <v>1.372112685789044</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.643882989365608</v>
+        <v>3.607583539008169</v>
       </c>
       <c r="C4">
-        <v>2.0041810906114</v>
+        <v>1.993043150492126</v>
       </c>
       <c r="D4">
-        <v>1.576039886048958</v>
+        <v>1.57236504845805</v>
       </c>
       <c r="E4">
-        <v>1.38773311681167</v>
+        <v>1.383240013895821</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.5621188094138</v>
+        <v>3.534977467695958</v>
       </c>
       <c r="C5">
-        <v>2.031435382038775</v>
+        <v>2.020387323550141</v>
       </c>
       <c r="D5">
-        <v>1.581894612469684</v>
+        <v>1.57880164550358</v>
       </c>
       <c r="E5">
-        <v>1.404856797040526</v>
+        <v>1.399850874782828</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.986817473806805</v>
+        <v>2.968124494335742</v>
       </c>
       <c r="C6">
-        <v>1.882346305176511</v>
+        <v>1.875463510908506</v>
       </c>
       <c r="D6">
-        <v>1.551658301694525</v>
+        <v>1.548287313870727</v>
       </c>
       <c r="E6">
-        <v>1.388934060592449</v>
+        <v>1.384591965316204</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.255321134381763</v>
+        <v>3.230341905891171</v>
       </c>
       <c r="C7">
-        <v>1.967958818102869</v>
+        <v>1.961212458634178</v>
       </c>
       <c r="D7">
-        <v>1.590348423023606</v>
+        <v>1.587202116579776</v>
       </c>
       <c r="E7">
-        <v>1.396064852161582</v>
+        <v>1.390972419996553</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.065370000109765</v>
+        <v>2.048578856136538</v>
       </c>
       <c r="C8">
-        <v>1.506902702477445</v>
+        <v>1.497617726625957</v>
       </c>
       <c r="D8">
-        <v>1.352916142483358</v>
+        <v>1.347264377506427</v>
       </c>
       <c r="E8">
-        <v>1.312761301097031</v>
+        <v>1.307684694103238</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.8583919904523</v>
+        <v>2.83681288685493</v>
       </c>
       <c r="C9">
-        <v>1.820382834624698</v>
+        <v>1.812437534362181</v>
       </c>
       <c r="D9">
-        <v>1.527405598438478</v>
+        <v>1.524252566768621</v>
       </c>
       <c r="E9">
-        <v>1.36410775957613</v>
+        <v>1.359680543457173</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.539853526481119</v>
+        <v>3.499139607109537</v>
       </c>
       <c r="C10">
-        <v>2.045888639696261</v>
+        <v>2.033644326230511</v>
       </c>
       <c r="D10">
-        <v>1.609321355018986</v>
+        <v>1.602662455506086</v>
       </c>
       <c r="E10">
-        <v>1.409088499683749</v>
+        <v>1.403891052508206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.512396199560087</v>
+        <v>3.48083342614943</v>
       </c>
       <c r="C11">
-        <v>2.035832812967509</v>
+        <v>2.025370691254477</v>
       </c>
       <c r="D11">
-        <v>1.602990320174529</v>
+        <v>1.599602480699534</v>
       </c>
       <c r="E11">
-        <v>1.406601035876134</v>
+        <v>1.400737064552017</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.060133675128444</v>
+        <v>3.018377456737963</v>
       </c>
       <c r="C12">
-        <v>1.905243481774686</v>
+        <v>1.892787997103477</v>
       </c>
       <c r="D12">
-        <v>1.568902071079327</v>
+        <v>1.56334331424269</v>
       </c>
       <c r="E12">
-        <v>1.378283075350788</v>
+        <v>1.373175483619289</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.382836375338402</v>
+        <v>3.337211194759394</v>
       </c>
       <c r="C13">
-        <v>2.002758343647788</v>
+        <v>1.989697056952977</v>
       </c>
       <c r="D13">
-        <v>1.593624928359958</v>
+        <v>1.587080947628144</v>
       </c>
       <c r="E13">
-        <v>1.398757084842761</v>
+        <v>1.392783088423188</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV.xlsx
@@ -388,13 +388,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.657830235493572</v>
+        <v>3.657830235493575</v>
       </c>
       <c r="C2">
-        <v>2.002151662949331</v>
+        <v>2.002151662949332</v>
       </c>
       <c r="D2">
-        <v>1.570172298926858</v>
+        <v>1.570172298926857</v>
       </c>
       <c r="E2">
         <v>1.378958854892205</v>
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.555220259392242</v>
+        <v>3.555220259392244</v>
       </c>
       <c r="C3">
         <v>1.971045113597998</v>
@@ -414,7 +414,7 @@
         <v>1.558931202156377</v>
       </c>
       <c r="E3">
-        <v>1.372112685789044</v>
+        <v>1.372112685789045</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.607583539008169</v>
+        <v>3.607583539008171</v>
       </c>
       <c r="C4">
-        <v>1.993043150492126</v>
+        <v>1.993043150492128</v>
       </c>
       <c r="D4">
-        <v>1.57236504845805</v>
+        <v>1.572365048458049</v>
       </c>
       <c r="E4">
         <v>1.383240013895821</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.534977467695958</v>
+        <v>3.534977467695962</v>
       </c>
       <c r="C5">
         <v>2.020387323550141</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.968124494335742</v>
+        <v>2.968124494335747</v>
       </c>
       <c r="C6">
         <v>1.875463510908506</v>
       </c>
       <c r="D6">
-        <v>1.548287313870727</v>
+        <v>1.548287313870725</v>
       </c>
       <c r="E6">
         <v>1.384591965316204</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.230341905891171</v>
+        <v>3.230341905891172</v>
       </c>
       <c r="C7">
         <v>1.961212458634178</v>
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.048578856136538</v>
+        <v>2.048578856136536</v>
       </c>
       <c r="C8">
         <v>1.497617726625957</v>
       </c>
       <c r="D8">
-        <v>1.347264377506427</v>
+        <v>1.347264377506428</v>
       </c>
       <c r="E8">
-        <v>1.307684694103238</v>
+        <v>1.307684694103237</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.83681288685493</v>
+        <v>2.836812886854931</v>
       </c>
       <c r="C9">
-        <v>1.812437534362181</v>
+        <v>1.812437534362182</v>
       </c>
       <c r="D9">
-        <v>1.524252566768621</v>
+        <v>1.524252566768622</v>
       </c>
       <c r="E9">
         <v>1.359680543457173</v>
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.499139607109537</v>
+        <v>3.499139607109543</v>
       </c>
       <c r="C10">
-        <v>2.033644326230511</v>
+        <v>2.033644326230509</v>
       </c>
       <c r="D10">
         <v>1.602662455506086</v>
       </c>
       <c r="E10">
-        <v>1.403891052508206</v>
+        <v>1.403891052508207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.48083342614943</v>
+        <v>3.480833426149434</v>
       </c>
       <c r="C11">
         <v>2.025370691254477</v>
@@ -550,7 +550,7 @@
         <v>1.599602480699534</v>
       </c>
       <c r="E11">
-        <v>1.400737064552017</v>
+        <v>1.400737064552015</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.018377456737963</v>
+        <v>3.018377456737966</v>
       </c>
       <c r="C12">
         <v>1.892787997103477</v>
@@ -567,7 +567,7 @@
         <v>1.56334331424269</v>
       </c>
       <c r="E12">
-        <v>1.373175483619289</v>
+        <v>1.373175483619288</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.337211194759394</v>
+        <v>3.337211194759396</v>
       </c>
       <c r="C13">
-        <v>1.989697056952977</v>
+        <v>1.989697056952975</v>
       </c>
       <c r="D13">
-        <v>1.587080947628144</v>
+        <v>1.587080947628143</v>
       </c>
       <c r="E13">
         <v>1.392783088423188</v>
